--- a/sampleFile/catapult.xlsx
+++ b/sampleFile/catapult.xlsx
@@ -2,13 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="KhairatKematian_form" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Dictionary" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="DataTypeMaker" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="KhairatKematian" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,36 +22,396 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t xml:space="preserve">Module Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canEdit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandatory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KhairatKematian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">radio</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abbreviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExampleDefine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List(Dropdown)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L#Qualification=Phd/Masters/Bachelor/Diploma/Certificate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes or No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y#Certified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q#NoOfDays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T#FullName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ch#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ch#Interests=Football/Jogging/Badminton</t>
   </si>
   <si>
     <t xml:space="preserve">Radio</t>
   </si>
   <si>
-    <t xml:space="preserve">textarea</t>
+    <t xml:space="preserve">Rd#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rd#Satisfaction=VerySatisfied/Normal/NotSatisfied</t>
   </si>
   <si>
     <t xml:space="preserve">TextArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ta#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ta#Reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D#DOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R#MinimumPrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F#Attachment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H#username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATATYPE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of Static Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y/N Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Model Maker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataTypeCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContractType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaidBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TrainingType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YearsExperience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoOfDays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoOfHours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List Values</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Phd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permanent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hourly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InHouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Masters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outsourced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">rd</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachelor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temporary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fair</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Diploma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OneTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adhoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impromptu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColumnType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T#ApplicantName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ApplicantName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y#Consent</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Consent of share information tho 3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">rd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Party</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Q#AccountNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountBankNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L#Banks=CIMB/RHB/Maybank/HongLeong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank</t>
   </si>
 </sst>
 </file>
@@ -60,7 +422,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -81,21 +443,66 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF999999"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF6D"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -124,16 +531,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -146,6 +569,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF6D"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF999999"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -154,15 +637,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -175,54 +660,562 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="b">
-        <v>1</v>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f aca="false">B3&amp;B4&amp;B5&amp;B6</f>
+        <v>L#Qualification=Phd/Masters/Bachelor/Diploma/Certificate</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f aca="false">C3&amp;C4&amp;C5&amp;C6</f>
+        <v>L#ContractType=Permanent/Contract/Temporary/OneTime/Impromptu</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f aca="false">D3&amp;D4&amp;D5&amp;D6</f>
+        <v>L#PaidBy=Hourly/Daily/Monthly/Project/Adhoc</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f aca="false">E3&amp;E4&amp;E5&amp;E6</f>
+        <v>L#TrainingType=InHouse/Outsourced/Academy/Adhoc</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f aca="false">F3&amp;F4&amp;F5&amp;F6</f>
+        <v>L#Performance=Excellent/Good/Fair/Poor</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f aca="false">G3&amp;G4&amp;G5</f>
+        <v>Y#Certified</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f aca="false">H3&amp;H4&amp;H5</f>
+        <v>Y#YearsExperience</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f aca="false">I3&amp;I4&amp;I5</f>
+        <v>Y#Registered</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f aca="false">J3&amp;J4&amp;J5</f>
+        <v>Q#NoOfDays</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f aca="false">K3&amp;K4&amp;K5</f>
+        <v>Q#NoOfHours</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="b">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f aca="false">H3</f>
+        <v>Y#</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="str">
+        <f aca="false">"="</f>
+        <v>=</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f aca="false">"="</f>
+        <v>=</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f aca="false">"="</f>
+        <v>=</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f aca="false">"="</f>
+        <v>=</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f aca="false">"="</f>
+        <v>=</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f aca="false">_xlfn.TEXTJOIN("/", ,B7:B11)</f>
+        <v>Phd/Masters/Bachelor/Diploma/Certificate</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f aca="false">_xlfn.TEXTJOIN("/", ,C7:C11)</f>
+        <v>Permanent/Contract/Temporary/OneTime/Impromptu</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f aca="false">_xlfn.TEXTJOIN("/", ,D7:D11)</f>
+        <v>Hourly/Daily/Monthly/Project/Adhoc</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f aca="false">_xlfn.TEXTJOIN("/", ,E7:E10)</f>
+        <v>InHouse/Outsourced/Academy/Adhoc</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f aca="false">_xlfn.TEXTJOIN("/", ,F7:F10)</f>
+        <v>Excellent/Good/Fair/Poor</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="48.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="27.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.89"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="str">
+        <f aca="false">_xlfn.TEXTJOIN(",",,DataTypeMaker!C2)</f>
+        <v>L#ContractType=Permanent/Contract/Temporary/OneTime/Impromptu</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/sampleFile/catapult.xlsx
+++ b/sampleFile/catapult.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" state="visible" r:id="rId2"/>
@@ -192,6 +192,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -202,6 +203,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">st</t>
     </r>
@@ -228,6 +230,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -238,6 +241,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">nd</t>
     </r>
@@ -264,6 +268,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -274,6 +279,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">rd</t>
     </r>
@@ -300,6 +306,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">4</t>
     </r>
@@ -310,6 +317,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -336,6 +344,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">5</t>
     </r>
@@ -346,6 +355,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -369,7 +379,7 @@
     <t xml:space="preserve">T#ApplicantName</t>
   </si>
   <si>
-    <t xml:space="preserve">ApplicantName</t>
+    <t xml:space="preserve">Applicant Name</t>
   </si>
   <si>
     <t xml:space="preserve">Y#Consent</t>
@@ -380,6 +390,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Consent of share information tho 3</t>
     </r>
@@ -389,6 +400,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">rd</t>
     </r>
@@ -397,6 +409,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Party</t>
     </r>
@@ -427,6 +440,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -449,18 +463,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF999999"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -468,12 +485,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -639,11 +658,11 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.64"/>
@@ -804,7 +823,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1146,11 +1165,11 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="48.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="27.23"/>
